--- a/src/test/resources/Test_Data/New Microsoft Excel Worksheet.xlsx
+++ b/src/test/resources/Test_Data/New Microsoft Excel Worksheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T540p\eclipse-workspace\toptechschool.sdet.testNG.framework\src\test\resources\Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elite\eclipse-workspace\toptechschool.sdet.testNG.framework\src\test\resources\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171EC329-2A49-4DC0-B2AB-7F733CBD5CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0832BA27-C5A7-4537-A1F6-7A1A7EE3D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2460" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,25 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Jawidq</t>
+  </si>
+  <si>
+    <t>hamid</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ashooryq</t>
+  </si>
+  <si>
+    <t>Saremq</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>jawid@hotmail.comeq</t>
+  </si>
+  <si>
+    <t>hamid@gmail.comq</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>test1233</t>
+  </si>
+  <si>
+    <t>123test3</t>
+  </si>
+  <si>
+    <t>confpass</t>
+  </si>
+  <si>
+    <t>test1243</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +127,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,26 +421,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>32222222222</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>34444444444</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B0458D2-CA98-45D9-8664-39EACE55E8EC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{94F610E8-8B38-474C-8887-3C3FA4302B98}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>